--- a/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E005721-0574-42A6-9DFF-D4B01DDB5241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF86ACDC-F2DB-4DF3-BA3A-583617181E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5845B96-1FDE-4D05-95D8-00B054E7B255}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6EBA182-609F-4A53-8AB1-428FCCC29E15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>59,4%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>27,16%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>20,37%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>65,14%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,97 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>42,62%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>30,68%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>60,38%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
+    <t>57,38%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>69,32%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3478DEC-886F-41FA-8E98-C3A36E891D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07856B71-49EB-4A49-A349-FE89A628C15B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1569,7 +1563,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -1578,10 +1572,10 @@
         <v>455796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
@@ -1599,7 +1593,7 @@
         <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,10 +1608,10 @@
         <v>730065</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
@@ -1635,7 +1629,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7">
         <v>1631</v>
@@ -1644,13 +1638,13 @@
         <v>1424701</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1712,13 @@
         <v>790501</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2292</v>
@@ -1733,13 +1727,13 @@
         <v>1544306</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>3165</v>
@@ -1748,13 +1742,13 @@
         <v>2334807</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>2594727</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3075</v>
@@ -1784,28 +1778,28 @@
         <v>2291275</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5578</v>
       </c>
       <c r="N20" s="7">
-        <v>4886002</v>
+        <v>4886001</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1841,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1861,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF86ACDC-F2DB-4DF3-BA3A-583617181E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{262CF6BC-21DE-479A-997F-4E84662B706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6EBA182-609F-4A53-8AB1-428FCCC29E15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A0B3F92-5AE7-4E84-933D-23B4562E2F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>27,16%</t>
@@ -188,7 +188,7 @@
     <t>70,49%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>20,37%</t>
@@ -245,7 +245,7 @@
     <t>73,19%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>22,82%</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07856B71-49EB-4A49-A349-FE89A628C15B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E3B422-8418-4275-9482-FCD0C84F24DD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262CF6BC-21DE-479A-997F-4E84662B706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79EA0C46-9970-4E74-AB99-FB2E5478A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A0B3F92-5AE7-4E84-933D-23B4562E2F4B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9527B04-90AA-45D9-9BA0-D746625969CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>59,4%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>27,16%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>20,37%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>65,14%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,97 +308,103 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
-    <t>42,62%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>30,68%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>60,38%</t>
   </si>
   <si>
-    <t>57,38%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>69,32%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E3B422-8418-4275-9482-FCD0C84F24DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C78B6-5110-477A-8CD7-F9BE1FC18C9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1563,7 +1569,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -1572,10 +1578,10 @@
         <v>455796</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
@@ -1593,7 +1599,7 @@
         <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,10 +1614,10 @@
         <v>730065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
@@ -1629,7 +1635,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1631</v>
@@ -1638,13 +1644,13 @@
         <v>1424701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1718,13 @@
         <v>790501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2292</v>
@@ -1727,13 +1733,13 @@
         <v>1544306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>3165</v>
@@ -1742,13 +1748,13 @@
         <v>2334807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1769,13 @@
         <v>2594727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3075</v>
@@ -1778,28 +1784,28 @@
         <v>2291275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5578</v>
       </c>
       <c r="N20" s="7">
-        <v>4886001</v>
+        <v>4886002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1847,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79EA0C46-9970-4E74-AB99-FB2E5478A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F73AF0-E189-4356-AE0B-58DD47038A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9527B04-90AA-45D9-9BA0-D746625969CA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C68F145-2A71-4FE5-93A5-6DCB9DC7AA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C78B6-5110-477A-8CD7-F9BE1FC18C9E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B40CA0C-AC71-4C16-946E-B639D5AEE8A1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="D4" s="7">
-        <v>27853</v>
+        <v>171183</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>115</v>
+        <v>557</v>
       </c>
       <c r="I4" s="7">
-        <v>53080</v>
+        <v>269521</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>151</v>
+        <v>772</v>
       </c>
       <c r="N4" s="7">
-        <v>80932</v>
+        <v>440705</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="D5" s="7">
-        <v>74129</v>
+        <v>464258</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>128</v>
+        <v>684</v>
       </c>
       <c r="I5" s="7">
-        <v>77653</v>
+        <v>455809</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1199</v>
       </c>
       <c r="N5" s="7">
-        <v>151783</v>
+        <v>920067</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>149309</v>
+        <v>203407</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>442</v>
+        <v>647</v>
       </c>
       <c r="I7" s="7">
-        <v>234540</v>
+        <v>374375</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>621</v>
+        <v>874</v>
       </c>
       <c r="N7" s="7">
-        <v>383849</v>
+        <v>577783</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>433</v>
+        <v>737</v>
       </c>
       <c r="D8" s="7">
-        <v>400514</v>
+        <v>989457</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>556</v>
+        <v>870</v>
       </c>
       <c r="I8" s="7">
-        <v>385427</v>
+        <v>584276</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>989</v>
+        <v>1607</v>
       </c>
       <c r="N8" s="7">
-        <v>785941</v>
+        <v>1573733</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>211691</v>
+        <v>160632</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>647</v>
+        <v>416</v>
       </c>
       <c r="I10" s="7">
-        <v>408417</v>
+        <v>464539</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>874</v>
+        <v>582</v>
       </c>
       <c r="N10" s="7">
-        <v>620108</v>
+        <v>625171</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>737</v>
+        <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>827557</v>
+        <v>544048</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>870</v>
+        <v>631</v>
       </c>
       <c r="I11" s="7">
-        <v>651662</v>
+        <v>468827</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>1141</v>
       </c>
       <c r="N11" s="7">
-        <v>1479219</v>
+        <v>1012875</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="D13" s="7">
-        <v>166311</v>
+        <v>231677</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1360,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>416</v>
+        <v>672</v>
       </c>
       <c r="I13" s="7">
-        <v>392473</v>
+        <v>413519</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1375,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>582</v>
+        <v>937</v>
       </c>
       <c r="N13" s="7">
-        <v>558784</v>
+        <v>645196</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>510</v>
+        <v>741</v>
       </c>
       <c r="D14" s="7">
-        <v>562461</v>
+        <v>695154</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1411,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>631</v>
+        <v>890</v>
       </c>
       <c r="I14" s="7">
-        <v>481898</v>
+        <v>681413</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1426,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1141</v>
+        <v>1631</v>
       </c>
       <c r="N14" s="7">
-        <v>1044358</v>
+        <v>1376567</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,31 +1494,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>265</v>
+        <v>873</v>
       </c>
       <c r="D16" s="7">
-        <v>235338</v>
+        <v>766900</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="7">
-        <v>672</v>
+        <v>2292</v>
       </c>
       <c r="I16" s="7">
-        <v>455796</v>
+        <v>1521954</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1587,19 +1530,19 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>937</v>
+        <v>3165</v>
       </c>
       <c r="N16" s="7">
-        <v>691134</v>
+        <v>2288854</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,25 +1551,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>741</v>
+        <v>2503</v>
       </c>
       <c r="D17" s="7">
-        <v>730065</v>
+        <v>2692917</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>890</v>
+        <v>3075</v>
       </c>
       <c r="I17" s="7">
-        <v>694636</v>
+        <v>2190326</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -1638,19 +1581,19 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1631</v>
+        <v>5578</v>
       </c>
       <c r="N17" s="7">
-        <v>1424701</v>
+        <v>4883243</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>873</v>
-      </c>
-      <c r="D19" s="7">
-        <v>790501</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2292</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1544306</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3165</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2334807</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2503</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2594727</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3075</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2291275</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5578</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4886002</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
